--- a/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>175,14%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>55,19%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,72%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>2.1249823731443</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.213600387809087</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.4709857466944211</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.057289680756623</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5378871095456357</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1268655315614652</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 4,93</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 2,79</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 745,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 183,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-42,46; 111,93</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>-0.3996960529946127</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-0.7556817123842148</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-2.413278520293427</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1942084505266963</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1663548531204465</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4395902962506549</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.432600835423662</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>4.999347075196354</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.025336632058514</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.135131880323812</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.935821036523619</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.25573991629149</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>35,9%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,77%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>51,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 3,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 3,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 2,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 98,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 76,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9,49; 105,21</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.06403293534898</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.002457070854204</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.450398631293747</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5980560467894731</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4092277978062668</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5466793019286429</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.07831193157521243</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.1323448280359235</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.4181997540485543</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.008951666828675136</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.02167085719895041</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1142462908635078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.610420105078575</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>3.887650196330819</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.541858647230445</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.383681051374035</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.9744762200274599</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.111011454698167</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>55,74%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>73,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 4,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 5,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 1,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 194,47</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 189,4</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-39,16; 70,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.867099618271498</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.088270679422354</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-0.2382686628531139</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4671478233777594</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.5197355190131961</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.06919127313950468</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.211998597287641</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-0.576299661125066</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-2.039055159032381</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.231419659168589</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1579661998006794</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4642417932255245</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>4.641312171120282</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>5.013077728500886</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1.328648649214194</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.913807366164476</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.808019595857512</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5290336623073714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>46,81%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>42,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>32,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 99,89</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11,16; 79,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 70,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.905140786684715</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.038315130740894</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.8888076485887041</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5549379458689215</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4488078017391826</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2993393376368481</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.6012138564929185</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.5308926091096394</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.0410454112692644</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1226945234088948</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.09744047988760868</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.002290659026304279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3.227689593531842</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.429143252303886</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1.786615198365432</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.207045783790547</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.878597508562579</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6927585584120873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
